--- a/HW9/data/total2015_2020.xlsx
+++ b/HW9/data/total2015_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B379348-6B57-49E6-9143-B85C5F162ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4768E87C-B72B-4004-AD96-40B1D1E4216F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14295" windowHeight="11445" xr2:uid="{344AB614-A76C-437A-A577-542AA194AEDF}"/>
+    <workbookView xWindow="13215" yWindow="2415" windowWidth="22590" windowHeight="11445" xr2:uid="{344AB614-A76C-437A-A577-542AA194AEDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>China</t>
   </si>
@@ -129,6 +129,99 @@
   </si>
   <si>
     <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t>2Let</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>INDO</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>ZA</t>
   </si>
 </sst>
 </file>
@@ -480,260 +573,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A154DF-0555-4AAE-A25A-49CE7535D9DE}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>24070188</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>9558888</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>4859901</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>179448</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2497741</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2113738</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>997039</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1531100</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1346517</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1489353</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>579657</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2749831</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>18915</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>23544</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>6906</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>37219</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>237646</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>318773</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>91005</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>121488</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>54181</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>58422</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>331443</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>39408</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>8717</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>44684</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>53023</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>463704</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>77313</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>27195</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
